--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf13-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Tnfsf13-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,7 +525,7 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.665239</v>
+        <v>0.6848073333333332</v>
       </c>
       <c r="H2">
-        <v>1.995717</v>
+        <v>2.054422</v>
       </c>
       <c r="I2">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442471</v>
       </c>
       <c r="J2">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442472</v>
       </c>
       <c r="K2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>2.095195666666667</v>
+        <v>0.07580833333333332</v>
       </c>
       <c r="N2">
-        <v>6.285587</v>
+        <v>0.227425</v>
       </c>
       <c r="O2">
-        <v>0.8546922300706357</v>
+        <v>0.028190957994264</v>
       </c>
       <c r="P2">
-        <v>0.8546922300706358</v>
+        <v>0.02819095799426401</v>
       </c>
       <c r="Q2">
-        <v>1.393805870097667</v>
+        <v>0.05191410259444443</v>
       </c>
       <c r="R2">
-        <v>12.544252830879</v>
+        <v>0.4672269233499999</v>
       </c>
       <c r="S2">
-        <v>0.3180867792694454</v>
+        <v>0.006394584676888657</v>
       </c>
       <c r="T2">
-        <v>0.3180867792694455</v>
+        <v>0.00639458467688866</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,7 +587,7 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -596,51 +596,51 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.665239</v>
+        <v>0.6848073333333332</v>
       </c>
       <c r="H3">
-        <v>1.995717</v>
+        <v>2.054422</v>
       </c>
       <c r="I3">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442471</v>
       </c>
       <c r="J3">
-        <v>0.3721652871971906</v>
+        <v>0.2268310526442472</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.356208</v>
+        <v>2.095195666666667</v>
       </c>
       <c r="N3">
-        <v>1.068624</v>
+        <v>6.285587</v>
       </c>
       <c r="O3">
-        <v>0.1453077699293643</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="P3">
-        <v>0.1453077699293643</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="Q3">
-        <v>0.236963453712</v>
+        <v>1.434805357301555</v>
       </c>
       <c r="R3">
-        <v>2.132671083408</v>
+        <v>12.913248215714</v>
       </c>
       <c r="S3">
-        <v>0.05407850792774515</v>
+        <v>0.1767339488422581</v>
       </c>
       <c r="T3">
-        <v>0.05407850792774515</v>
+        <v>0.1767339488422582</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,25 +649,25 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3279213333333333</v>
+        <v>0.6848073333333332</v>
       </c>
       <c r="H4">
-        <v>0.983764</v>
+        <v>2.054422</v>
       </c>
       <c r="I4">
-        <v>0.1834542731230215</v>
+        <v>0.2268310526442471</v>
       </c>
       <c r="J4">
-        <v>0.1834542731230214</v>
+        <v>0.2268310526442472</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.095195666666667</v>
+        <v>0.5180969999999999</v>
       </c>
       <c r="N4">
-        <v>6.285587</v>
+        <v>1.554291</v>
       </c>
       <c r="O4">
-        <v>0.8546922300706357</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="P4">
-        <v>0.8546922300706358</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="Q4">
-        <v>0.6870593566075556</v>
+        <v>0.3547966249779999</v>
       </c>
       <c r="R4">
-        <v>6.183534209468</v>
+        <v>3.193169624801999</v>
       </c>
       <c r="S4">
-        <v>0.1567969418115027</v>
+        <v>0.04370251912510035</v>
       </c>
       <c r="T4">
-        <v>0.1567969418115027</v>
+        <v>0.04370251912510036</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -726,45 +726,45 @@
         <v>0.983764</v>
       </c>
       <c r="I5">
-        <v>0.1834542731230215</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="J5">
-        <v>0.1834542731230214</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.356208</v>
+        <v>0.07580833333333332</v>
       </c>
       <c r="N5">
-        <v>1.068624</v>
+        <v>0.227425</v>
       </c>
       <c r="O5">
-        <v>0.1453077699293643</v>
+        <v>0.028190957994264</v>
       </c>
       <c r="P5">
-        <v>0.1453077699293643</v>
+        <v>0.02819095799426401</v>
       </c>
       <c r="Q5">
-        <v>0.116808202304</v>
+        <v>0.02485916974444444</v>
       </c>
       <c r="R5">
-        <v>1.051273820736</v>
+        <v>0.2237325277</v>
       </c>
       <c r="S5">
-        <v>0.02665733131151876</v>
+        <v>0.003062059401658809</v>
       </c>
       <c r="T5">
-        <v>0.02665733131151875</v>
+        <v>0.00306205940165881</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -782,16 +782,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.7943223333333332</v>
+        <v>0.3279213333333333</v>
       </c>
       <c r="H6">
-        <v>2.382967</v>
+        <v>0.983764</v>
       </c>
       <c r="I6">
-        <v>0.444380439679788</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="J6">
-        <v>0.444380439679788</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,27 +806,27 @@
         <v>6.285587</v>
       </c>
       <c r="O6">
-        <v>0.8546922300706357</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="P6">
-        <v>0.8546922300706358</v>
+        <v>0.7791435378093522</v>
       </c>
       <c r="Q6">
-        <v>1.664260710736555</v>
+        <v>0.6870593566075556</v>
       </c>
       <c r="R6">
-        <v>14.978346396629</v>
+        <v>6.183534209467999</v>
       </c>
       <c r="S6">
-        <v>0.3798085089896876</v>
+        <v>0.08462939768404702</v>
       </c>
       <c r="T6">
-        <v>0.3798085089896877</v>
+        <v>0.08462939768404702</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -844,46 +844,232 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.7943223333333332</v>
+        <v>0.3279213333333333</v>
       </c>
       <c r="H7">
-        <v>2.382967</v>
+        <v>0.983764</v>
       </c>
       <c r="I7">
-        <v>0.444380439679788</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="J7">
-        <v>0.444380439679788</v>
+        <v>0.1086184939966157</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.356208</v>
+        <v>0.5180969999999999</v>
       </c>
       <c r="N7">
-        <v>1.068624</v>
+        <v>1.554291</v>
       </c>
       <c r="O7">
-        <v>0.1453077699293643</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="P7">
-        <v>0.1453077699293643</v>
+        <v>0.1926655041963838</v>
       </c>
       <c r="Q7">
-        <v>0.282943969712</v>
+        <v>0.169895059036</v>
       </c>
       <c r="R7">
-        <v>2.546495727408</v>
+        <v>1.529055531324</v>
       </c>
       <c r="S7">
-        <v>0.06457193069010038</v>
+        <v>0.02092703691090985</v>
       </c>
       <c r="T7">
-        <v>0.06457193069010038</v>
+        <v>0.02092703691090985</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>2.006290666666667</v>
+      </c>
+      <c r="H8">
+        <v>6.018872</v>
+      </c>
+      <c r="I8">
+        <v>0.6645504533591371</v>
+      </c>
+      <c r="J8">
+        <v>0.6645504533591372</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M8">
+        <v>0.07580833333333332</v>
+      </c>
+      <c r="N8">
+        <v>0.227425</v>
+      </c>
+      <c r="O8">
+        <v>0.028190957994264</v>
+      </c>
+      <c r="P8">
+        <v>0.02819095799426401</v>
+      </c>
+      <c r="Q8">
+        <v>0.1520935516222222</v>
+      </c>
+      <c r="R8">
+        <v>1.3688419646</v>
+      </c>
+      <c r="S8">
+        <v>0.01873431391571653</v>
+      </c>
+      <c r="T8">
+        <v>0.01873431391571654</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>2.006290666666667</v>
+      </c>
+      <c r="H9">
+        <v>6.018872</v>
+      </c>
+      <c r="I9">
+        <v>0.6645504533591371</v>
+      </c>
+      <c r="J9">
+        <v>0.6645504533591372</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>2.095195666666667</v>
+      </c>
+      <c r="N9">
+        <v>6.285587</v>
+      </c>
+      <c r="O9">
+        <v>0.7791435378093522</v>
+      </c>
+      <c r="P9">
+        <v>0.7791435378093522</v>
+      </c>
+      <c r="Q9">
+        <v>4.203571510873778</v>
+      </c>
+      <c r="R9">
+        <v>37.832143597864</v>
+      </c>
+      <c r="S9">
+        <v>0.517780191283047</v>
+      </c>
+      <c r="T9">
+        <v>0.5177801912830471</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>2.006290666666667</v>
+      </c>
+      <c r="H10">
+        <v>6.018872</v>
+      </c>
+      <c r="I10">
+        <v>0.6645504533591371</v>
+      </c>
+      <c r="J10">
+        <v>0.6645504533591372</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.5180969999999999</v>
+      </c>
+      <c r="N10">
+        <v>1.554291</v>
+      </c>
+      <c r="O10">
+        <v>0.1926655041963838</v>
+      </c>
+      <c r="P10">
+        <v>0.1926655041963838</v>
+      </c>
+      <c r="Q10">
+        <v>1.039453175528</v>
+      </c>
+      <c r="R10">
+        <v>9.355078579752</v>
+      </c>
+      <c r="S10">
+        <v>0.1280359481603736</v>
+      </c>
+      <c r="T10">
+        <v>0.1280359481603736</v>
       </c>
     </row>
   </sheetData>
